--- a/Insect labels/Box 2 Carabids/STEP1_Insect labels PNRCarabidBOX2.xlsx
+++ b/Insect labels/Box 2 Carabids/STEP1_Insect labels PNRCarabidBOX2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="14" documentId="8_{BC26DFFF-14B4-467C-BC98-C6FAC9C2593D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E59C1038-1CA7-4D45-AC88-E9636D62A7B7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="842" activeTab="2" xr2:uid="{9F7AD775-D155-4167-90FD-CA817BDAFCF1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="842" activeTab="5" xr2:uid="{9F7AD775-D155-4167-90FD-CA817BDAFCF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined_1st_label" sheetId="1" r:id="rId1"/>
@@ -935,10 +935,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -14523,7 +14519,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -16840,7 +16836,7 @@
   </sheetPr>
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -20161,7 +20157,7 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="13"/>
@@ -20980,8 +20976,8 @@
   </sheetPr>
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="5.5"/>

--- a/Insect labels/Box 2 Carabids/STEP1_Insect labels PNRCarabidBOX2.xlsx
+++ b/Insect labels/Box 2 Carabids/STEP1_Insect labels PNRCarabidBOX2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/Insect labels/Box 2 Carabids/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{BC26DFFF-14B4-467C-BC98-C6FAC9C2593D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E59C1038-1CA7-4D45-AC88-E9636D62A7B7}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{BC26DFFF-14B4-467C-BC98-C6FAC9C2593D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10887E97-BE9F-45BC-AA4E-C443F5671BEF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="842" activeTab="5" xr2:uid="{9F7AD775-D155-4167-90FD-CA817BDAFCF1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="842" activeTab="1" xr2:uid="{9F7AD775-D155-4167-90FD-CA817BDAFCF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined_1st_label" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="TrapsIntervals" sheetId="3" r:id="rId13"/>
     <sheet name="DatesDropdown" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1257,8 +1257,8 @@
   </sheetPr>
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="5.5"/>
@@ -14620,8 +14620,8 @@
   </sheetPr>
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="J10" sqref="A1:J10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="5.5"/>
@@ -16837,7 +16837,7 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="5.5"/>
@@ -20976,7 +20976,7 @@
   </sheetPr>
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
